--- a/VenditaVeicoli_DB_Solution/WindowsFormsAppProject/bin/Debug/Data/Cars_Details.xlsx
+++ b/VenditaVeicoli_DB_Solution/WindowsFormsAppProject/bin/Debug/Data/Cars_Details.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MySheet" sheetId="1" r:id="R479d6bf7d2e54b92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MySheet" sheetId="1" r:id="Rd73d3b9ce9bb4b08"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -21,7 +21,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="BBBBBBBBB"/>
+        <x:fgColor rgb="FFFF0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -111,7 +111,7 @@
         <x:v>75,2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>01/01/0001</x:v>
+        <x:v>16/05/2020</x:v>
       </x:c>
       <x:c t="str">
         <x:v>False</x:v>
@@ -149,7 +149,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>14/05/2020</x:v>
+        <x:v>16/05/2020</x:v>
       </x:c>
       <x:c t="str">
         <x:v>False</x:v>
@@ -187,7 +187,7 @@
         <x:v>160,1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>14/05/2020</x:v>
+        <x:v>16/05/2020</x:v>
       </x:c>
       <x:c t="str">
         <x:v>False</x:v>
